--- a/data/long_bre/P24_8-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_8-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,28</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>101,02%</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>68,69%</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-29,5%</t>
+          <t>101,78%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62,86%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-29,57%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32,84%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>112,93%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 22,5</t>
+          <t>3,51; 23,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 15,19</t>
+          <t>-2,66; 15,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 4,09</t>
+          <t>-15,78; 3,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,38; 266,45</t>
+          <t>-9,15; 17,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 246,87</t>
+          <t>-1,56; 26,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 33,79</t>
+          <t>17,52; 289,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; 269,47</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-62,92; 31,97</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-40,76; 201,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-26,86; 630,73</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,07</t>
+          <t>-12,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>-18,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>-15,92</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,29%</t>
+          <t>-16,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,78%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-13,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-26,06%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-25,21%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,21; -0,63</t>
+          <t>-24,52; -0,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 8,45</t>
+          <t>-16,4; 9,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 3,37</t>
+          <t>-21,43; 3,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,19; -0,81</t>
+          <t>-33,39; 1,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 11,92</t>
+          <t>-35,07; 5,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 3,2</t>
+          <t>-30,45; -0,39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 13,61</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-26,34; 5,04</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-43,06; 1,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-48,72; 11,01</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,05</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,22%</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>239,45%</t>
+          <t>-5,11%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-18,09%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>219,73%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>90,28%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 7,88</t>
+          <t>-8,86; 7,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 7,47</t>
+          <t>-12,9; 6,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 24,38</t>
+          <t>6,94; 24,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-54,59; 108,01</t>
+          <t>-2,58; 25,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 78,85</t>
+          <t>-14,83; 22,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,68; 733,8</t>
+          <t>-54,51; 101,32</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-65,21; 65,27</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>54,24; 735,96</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-17,04; 339,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-39,86; 146,43</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 14,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 13,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 13,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,32; 185,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 202,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 159,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,72</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,61</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,08%</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-15,74%</t>
+          <t>32,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39,88%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>59,73%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67,52%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 7,29</t>
+          <t>-12,93; 15,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 5,03</t>
+          <t>-3,59; 13,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,06; -3,33</t>
+          <t>-0,8; 13,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 10,31</t>
+          <t>-2,94; 17,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 6,14</t>
+          <t>-9,12; 16,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,02; -4,44</t>
+          <t>-50,3; 186,8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-27,74; 207,24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,72; 184,93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; 263,06</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-41,76; 284,74</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>-8,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-13,54</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>-12,24</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>-10,86%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-7,99%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-16,83%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-9,45%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-18,13%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 11,62</t>
+          <t>-19,93; 9,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 10,11</t>
+          <t>-17,28; 5,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 13,75</t>
+          <t>-23,23; -3,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 185,87</t>
+          <t>-21,76; 12,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,64; 145,84</t>
+          <t>-32,19; 15,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 247,74</t>
+          <t>-24,4; 14,03</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-20,82; 7,3</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-27,4; -4,15</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-27,68; 23,1</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-39,42; 30,93</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>62,11%</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>36,55%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18,46%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>81,22%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>45,17%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 18,61</t>
+          <t>-4,6; 11,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 7,74</t>
+          <t>-6,14; 10,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,67</t>
+          <t>-0,53; 14,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 161,1</t>
+          <t>-19,73; 11,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 85,96</t>
+          <t>-21,04; 23,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,96; 217,79</t>
+          <t>-36,6; 204,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-41,7; 154,01</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; 250,2</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-60,93; 102,7</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-52,33; 391,22</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-12,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,93%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,63; -1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 2,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,55; -3,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,2; -1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 2,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,27; -5,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>78,54%</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>47,38%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>86,4%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>63,48%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>80,31%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,31</t>
+          <t>-4,64; 17,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 12,28</t>
+          <t>-5,54; 8,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 10,96</t>
+          <t>2,24; 13,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 134,4</t>
+          <t>0,31; 16,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 238,17</t>
+          <t>-0,28; 21,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 122,36</t>
+          <t>-21,67; 125,27</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-33,28; 88,35</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 201,64</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 182,56</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-7,19; 223,05</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>-12,22</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>109,53%</t>
+          <t>-11,9</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>-19,21</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>-14,69%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-8,41%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-15,52%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-15,87%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-27,42%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4,11; 17,06</t>
+          <t>-20,11; 1,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,21; 14,08</t>
+          <t>-15,05; 2,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 12,85</t>
+          <t>-19,72; -3,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27,66; 250,72</t>
+          <t>-21,2; -2,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,91; 253,94</t>
+          <t>-32,46; -5,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 130,22</t>
+          <t>-26,57; 2,97</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,37; 2,86</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-24,18; -5,36</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-27,31; -3,99</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-42,63; -9,21</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-14,37</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-13,11</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,54</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-17,95%</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-16,93%</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-14,01%</t>
+          <t>17,48%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>66,67%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>35,94%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>31,09%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>49,44%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-22,33; -5,5</t>
+          <t>-4,3; 8,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-22,43; -3,27</t>
+          <t>-1,05; 10,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,22; -1,36</t>
+          <t>-1,57; 10,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-26,73; -7,36</t>
+          <t>-2,97; 10,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-27,65; -4,8</t>
+          <t>-3,98; 18,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-23,1; -2,04</t>
+          <t>-33,14; 116,89</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-11,6; 219,14</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; 115,34</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-19,56; 119,58</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-19,45; 190,91</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1978,114 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 9,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 12,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 10,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 128,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 127,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 116,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>11,24</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>126,92%</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>177,86%</t>
+          <t>12,05</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>107,28%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>42,6%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>86,94%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>102,86%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +2098,52 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,78; 16,03</t>
+          <t>4,48; 17,73</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,89; 19,11</t>
+          <t>1,65; 14,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 10,79</t>
+          <t>-3,78; 12,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>21,42; 348,72</t>
+          <t>2,68; 16,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>16,88; 493,97</t>
+          <t>1,72; 21,69</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 147,59</t>
+          <t>32,0; 232,19</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 237,34</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-20,7; 124,01</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 209,46</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 291,81</t>
         </is>
       </c>
     </row>
@@ -1603,37 +2151,57 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-20,36</t>
+          <t>-14,87</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-13,79</t>
+          <t>-13,52</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-23,25%</t>
+          <t>-14,26</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-16,65%</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-11,24%</t>
+          <t>-18,73%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-17,46%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-14,07%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-17,7%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-3,31%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +2214,52 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-29,17; -11,84</t>
+          <t>-23,01; -6,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-23,47; -3,86</t>
+          <t>-22,18; -3,16</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 0,57</t>
+          <t>-18,18; -0,97</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-32,66; -13,92</t>
+          <t>-23,06; -6,35</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-27,29; -5,11</t>
+          <t>-15,9; 12,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 0,81</t>
+          <t>-27,98; -8,22</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-27,39; -4,35</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-23,02; -1,5</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-27,57; -8,13</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 21,92</t>
         </is>
       </c>
     </row>
@@ -1679,37 +2267,57 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>10,9</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>219,21%</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>-9,82</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>35,86%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>39,45%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>40,35%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>54,14%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>-46,31%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2330,110 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>4,95; 18,43</t>
+          <t>-2,47; 9,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 11,4</t>
+          <t>-4,88; 12,78</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 11,66</t>
+          <t>-1,66; 10,36</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>55,79; 686,09</t>
+          <t>-1,24; 10,92</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 152,29</t>
+          <t>-23,12; 0,47</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 94,55</t>
+          <t>-19,56; 139,83</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-26,68; 122,75</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 117,62</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; 201,41</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-74,1; 14,91</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>244,9%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2446,114 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 12,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>3,12; 18,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 9,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 154,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>32,32; 983,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-49,21; 162,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-12,29</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-19,74</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-9,51</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-22,64%</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-11,35%</t>
+          <t>138,02%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>182,54%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>40,0%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>48,64%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2566,52 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-21,61; -2,64</t>
+          <t>3,32; 16,9</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-30,75; -8,98</t>
+          <t>3,19; 17,37</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-19,72; -0,39</t>
+          <t>-3,27; 10,14</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-24,76; -3,63</t>
+          <t>-10,52; 10,43</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-33,94; -10,91</t>
+          <t>-4,92; 17,85</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-22,59; -0,43</t>
+          <t>26,18; 356,15</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>32,73; 527,34</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-26,31; 136,35</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-50,82; 121,99</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>-24,66; 198,85</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2619,57 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>-21,25</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>-14,11</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>273,25%</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>108,71%</t>
+          <t>-15,61</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>108,49%</t>
+          <t>-24,24%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-17,06%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-10,43%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-3,68%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>-22,42%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2682,110 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>3,92; 14,95</t>
+          <t>-30,22; -12,67</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>0,9; 19,53</t>
+          <t>-24,27; -4,91</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>1,28; 15,41</t>
+          <t>-17,04; 1,58</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>51,83; 1093,93</t>
+          <t>-15,92; 11,06</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>1,12; 390,43</t>
+          <t>-27,61; 0,33</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>3,56; 317,62</t>
+          <t>-33,52; -15,03</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-27,79; -6,41</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-21,94; 2,07</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-21,42; 18,34</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>-36,84; 0,63</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>11,12</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>69,56%</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>223,24%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>33,07%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>53,89%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2798,52 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>3,68; 11,39</t>
+          <t>4,9; 18,49</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,36</t>
+          <t>-3,22; 11,43</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,62</t>
+          <t>-4,33; 10,99</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>22,47; 110,69</t>
+          <t>-8,87; 11,75</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>32,86; 126,1</t>
+          <t>-2,25; 19,89</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>0,84; 65,9</t>
+          <t>58,14; 691,2</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-23,62; 139,72</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-24,53; 86,13</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-39,52; 94,94</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>-11,67; 188,72</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2851,57 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-12,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-10,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-10,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-16,26%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-13,38%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-13,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2914,114 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -7,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-14,67; -6,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-14,39; -6,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-20,58; -9,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -8,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -8,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>17,81%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>229,63%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>68,67%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>39,5%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +3034,890 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,45</t>
+          <t>-5,89; 11,81</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,56</t>
+          <t>3,15; 18,2</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,23</t>
+          <t>-5,11; 9,52</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>17,39; 106,96</t>
+          <t>-4,02; 18,15</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>4,97; 79,35</t>
+          <t>-9,38; 17,24</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>33,26; 118,01</t>
+          <t>-40,19; 155,43</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>23,58; 969,32</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-46,52; 191,18</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>-42,44; 334,66</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>-59,86; 308,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-12,24</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-19,75</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-9,97</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-9,55</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-21,44</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-14,51%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-22,8%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-11,95%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>-28,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-23,03; -2,89</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-30,06; -7,95</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-19,62; -0,16</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-23,32; 5,44</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-39,14; -3,52</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-26,54; -3,72</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-33,03; -9,45</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; -0,26</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>-28,11; 6,99</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>-47,67; -5,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>10,12</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>9,51</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>16,97</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>274,99%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>106,7%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>107,0%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>129,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 16,24</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 20,02</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 15,51</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-7,89; 13,0</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 32,77</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>40,32; 1042,92</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 394,01</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 324,65</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>-47,35; 251,07</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 453,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>7,9</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>8,16</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>61,48%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>70,8%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>30,44%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>52,65%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>64,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>3,06; 11,63</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 9,33</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 6,64</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 10,83</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 13,01</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 109,02</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>28,6; 120,0</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 66,82</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 108,01</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>19,84; 128,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-12,71</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-10,69</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-10,54</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-10,35</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-14,21</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-16,17%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-13,41%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-13,55%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>-13,98%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>-20,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-16,77; -7,91</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; -6,55</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; -6,77</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-16,22; -4,91</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; -6,96</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-20,68; -10,34</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-18,46; -8,42</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-17,9; -9,0</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>-20,83; -6,82</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>-29,17; -10,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>6,97</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>56,13%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>38,06%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>66,24%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>28,31%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>32,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 7,57</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 7,76</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 9,85</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 8,15</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 12,23</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>19,57; 105,21</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 80,81</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>33,09; 105,77</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 72,46</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 80,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_8-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_8-Edad-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1446,7 +1446,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1792,7 +1792,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1906,7 +1906,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2138,7 +2138,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2252,7 +2252,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2484,7 +2484,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2598,7 +2598,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2830,7 +2830,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2944,7 +2944,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
